--- a/public/upload_file/students/import_student_sample_file.xlsx
+++ b/public/upload_file/students/import_student_sample_file.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>admission_no</t>
+    <t>Admission Number</t>
   </si>
   <si>
-    <t>roll_no</t>
+    <t>Symbol Number/Roll Number</t>
   </si>
   <si>
-    <t>student_name</t>
+    <t>Student Name</t>
   </si>
   <si>
-    <t>date_of_birth(BS)</t>
+    <t>Date Of Birth(BS)</t>
   </si>
   <si>
-    <t>religion</t>
+    <t>Religion</t>
   </si>
   <si>
-    <t>mobile_no</t>
+    <t>Mobile No</t>
   </si>
   <si>
-    <t>email</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>admission_date</t>
+    <t>Admission Date</t>
   </si>
   <si>
-    <t>gender(Male/Female)</t>
+    <t>Blood Group (O+, A+, B+, AB+, O-, A-, B-, AB-)</t>
   </si>
   <si>
-    <t>blood_group(O+, A+, B+, AB+, O-, A-, B-, AB-)</t>
+    <t>Gender(Male/Female)</t>
   </si>
 </sst>
 </file>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -911,10 +911,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
